--- a/notebooks/SUOX/input/SUOX_ISOD_individuals.xlsx
+++ b/notebooks/SUOX/input/SUOX_ISOD_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SUOX/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7372FD6-F33F-BA45-89F9-3595184A9092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D567C8BA-2FEF-FD4F-8177-04D2FC238C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="4940" windowWidth="36660" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="4940" windowWidth="36660" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -956,8 +956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AR2" sqref="AR2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
